--- a/data/trans_dic/P18_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P18_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,41%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,95; 34,31</t>
+          <t>6,74; 36,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,67</t>
+          <t>0,0; 14,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 16,54</t>
+          <t>2,73; 26,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 13,98</t>
+          <t>0,0; 22,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 37,37</t>
+          <t>0,0; 13,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 16,46</t>
+          <t>10,96; 36,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 22,8</t>
+          <t>0,0; 14,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 36,88</t>
+          <t>4,56; 24,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,16; 30,71</t>
+          <t>0,0; 15,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 8,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,8; 17,15</t>
+          <t>12,9; 30,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 20,08</t>
+          <t>1,21; 11,31</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 20,98</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 13,59</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,48</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,15%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,44; 45,07</t>
+          <t>11,08; 55,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,67</t>
+          <t>0,0; 13,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 37,96</t>
+          <t>5,81; 58,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 18,43</t>
+          <t>1,8; 19,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,52; 35,77</t>
+          <t>0,0; 12,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 9,56</t>
+          <t>13,96; 37,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 17,26</t>
+          <t>1,64; 15,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 12,63</t>
+          <t>4,64; 21,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,87; 35,14</t>
+          <t>3,2; 21,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,8</t>
+          <t>0,0; 10,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 24,5</t>
+          <t>15,88; 41,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 12,61</t>
+          <t>2,29; 11,0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>8,57; 37,64</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,72; 16,11</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 8,26</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10,78%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,08%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,14%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8,63%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>9,41%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12,22%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>16,45%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,33%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>10,95%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10,14%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>21,04%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>10,14%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>10,22%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>11,16%</t>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,59%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,8; 35,99</t>
+          <t>20,95; 44,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 28,02</t>
+          <t>4,84; 20,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 29,78</t>
+          <t>1,6; 14,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 27,02</t>
+          <t>3,65; 19,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,29; 23,74</t>
+          <t>3,58; 20,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 11,35</t>
+          <t>8,97; 22,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 16,9</t>
+          <t>3,19; 14,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 16,07</t>
+          <t>5,52; 18,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,17; 26,09</t>
+          <t>5,09; 16,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 18,08</t>
+          <t>1,83; 13,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,55; 18,21</t>
+          <t>14,95; 27,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 18,02</t>
+          <t>5,46; 14,92</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 13,89</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5,68; 14,77</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,02; 13,28</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>31,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>9,31%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,9%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11,78%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,51; 31,39</t>
+          <t>10,37; 27,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 13,55</t>
+          <t>2,38; 13,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 13,01</t>
+          <t>3,79; 16,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 12,98</t>
+          <t>3,97; 17,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,73; 37,54</t>
+          <t>2,49; 13,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,96; 16,44</t>
+          <t>22,89; 41,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,0; 24,73</t>
+          <t>6,53; 18,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,58; 19,0</t>
+          <t>13,8; 29,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,96; 31,3</t>
+          <t>8,16; 22,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 13,15</t>
+          <t>10,24; 25,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 17,65</t>
+          <t>19,71; 32,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,14; 14,23</t>
+          <t>5,88; 14,34</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 21,23</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7,56; 17,14</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>8,16; 17,66</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>11,1%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>17,06%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>16,36%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,68; 34,19</t>
+          <t>17,14; 39,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 16,22</t>
+          <t>5,84; 21,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 18,44</t>
+          <t>6,72; 24,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,05; 21,62</t>
+          <t>10,13; 28,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,45; 36,68</t>
+          <t>6,98; 24,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 15,21</t>
+          <t>22,72; 47,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,75; 27,51</t>
+          <t>3,3; 21,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,04; 23,89</t>
+          <t>12,03; 34,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,34; 32,92</t>
+          <t>7,24; 27,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,02; 13,32</t>
+          <t>8,35; 32,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,22; 20,66</t>
+          <t>21,19; 38,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,91; 20,91</t>
+          <t>6,19; 17,91</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 24,16</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>10,82; 25,33</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,27; 25,23</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>50,25%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>42,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>13,55%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,66; 46,4</t>
+          <t>16,25; 44,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,86; 16,01</t>
+          <t>0,0; 17,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,59; 15,51</t>
+          <t>0,0; 12,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,54; 17,88</t>
+          <t>3,17; 25,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,29; 62,26</t>
+          <t>0,0; 16,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,99; 37,93</t>
+          <t>26,78; 57,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,39; 24,86</t>
+          <t>10,06; 32,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,04; 32,97</t>
+          <t>6,29; 29,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,76; 51,7</t>
+          <t>7,66; 31,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,25; 25,29</t>
+          <t>4,84; 30,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,2; 17,67</t>
+          <t>25,58; 47,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,95; 23,07</t>
+          <t>7,52; 23,33</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 18,01</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>7,71; 23,08</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 19,47</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>26,32%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9,97%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>9,94%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>9,56%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>28,27%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>10,14%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>14,48%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>12,96%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>27,1%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>9,16%</t>
-        </is>
-      </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>13,4%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,05; 30,63</t>
+          <t>20,15; 32,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,55; 11,9</t>
+          <t>4,79; 10,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,71</t>
+          <t>7,59; 20,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,84</t>
+          <t>7,05; 14,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,49; 31,79</t>
+          <t>3,99; 9,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,05; 13,03</t>
+          <t>22,16; 30,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,82; 17,12</t>
+          <t>7,24; 13,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,05; 16,73</t>
+          <t>11,61; 18,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,49; 29,83</t>
+          <t>8,33; 14,65</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,4</t>
+          <t>6,87; 13,82</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,35; 14,98</t>
+          <t>22,36; 29,31</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,29; 13,65</t>
+          <t>6,73; 10,76</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>10,7; 17,9</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>8,65; 13,45</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>6,27; 10,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,41%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16969</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3163</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12211</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8941</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3757</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25828</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6561</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14631</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5617</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>42796</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9724</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>26843</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>14558</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3757</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5804; 31160</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15855</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2884; 27690</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 29320</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19079</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12884; 42743</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19776</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5474; 29195</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19492</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26283; 62481</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2922; 27251</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>14083; 47368</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3931; 33991</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18866</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>36680</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6525</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>34038</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12108</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32279</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11045</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14442</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10772</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>68959</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17570</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>48480</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>22880</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>12478</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15159; 75783</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 23004</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8160; 82319</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2777; 30706</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 28847</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18262; 48457</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2711; 25372</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5881; 27102</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4045; 27183</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17564</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>42501; 110021</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7637; 36707</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>22893; 100528</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10451; 45209</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3522; 32221</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43877</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17981</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7127</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13068</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17610</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>30998</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20971</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22366</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18741</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14258</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>74874</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>38952</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>29493</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>31809</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>31869</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29275; 61674</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7842; 33999</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2156; 19036</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5025; 26696</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6459; 37175</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19329; 48045</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8412; 38081</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11463; 37632</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10209; 32288</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4391; 32188</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>53077; 99265</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>23254; 63589</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>15778; 47501</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>19196; 49923</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>16868; 55760</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>29477</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11505</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14638</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13916</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12535</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>60370</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25917</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37728</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24734</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>35867</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>89847</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>37422</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>52365</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>38650</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>48402</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16954; 44910</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4381; 25566</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6115; 27323</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6124; 27289</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4925; 27646</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>43788; 80236</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>14268; 41296</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25651; 54217</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13913; 38405</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>21788; 53718</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>69928; 115164</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>23665; 57654</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>37101; 73689</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>24554; 55672</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>33534; 72578</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>36835</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18035</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17528</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22611</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21872</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>33760</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10803</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>20282</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14213</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25453</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>70596</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>28838</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>37811</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>36824</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>47325</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>23015; 52606</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8795; 32219</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8878; 31730</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12482; 35052</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10794; 37185</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23513; 48872</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3600; 22947</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11289; 32385</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6709; 25271</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11248; 43635</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>50400; 91031</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16088; 46533</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>24137; 54566</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>23350; 54684</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>29703; 72977</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>23071</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6236</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9231</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4707</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>43228</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>27210</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16242</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18852</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>28754</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>66299</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>33447</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>18180</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>28083</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>33460</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>13381; 36296</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 19615</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9943</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2755; 22080</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 22621</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>27270; 58036</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>13849; 44117</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6462; 30777</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>8297; 34014</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10043; 62320</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>47108; 88034</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>18564; 57595</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>8352; 32980</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>15058; 45052</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>14649; 67243</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>186908</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>63445</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>87481</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>79875</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>67716</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>226463</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>102507</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>125692</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>92928</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>109575</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>413371</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>165952</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>213173</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>172804</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>177291</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>149681; 237914</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>42208; 93301</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>57208; 155185</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>55270; 110280</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>41645; 102534</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>190632; 262750</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>74486; 138680</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>97124; 157520</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>68346; 120270</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>75693; 152407</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>358417; 469952</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>128566; 205590</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>170233; 284760</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>138794; 215894</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>134540; 230446</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>